--- a/Estimering/gnshush.xlsx
+++ b/Estimering/gnshush.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rasmuskaslund/Documents/GitHub/SpecialeJR /Estimering/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{720B2A7C-C096-1040-A89A-9197286EF35C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00604DB1-EAE5-8B48-BB16-E054E0384C6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FU05" sheetId="2" r:id="rId1"/>
@@ -628,8 +628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA142"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="X23" sqref="X23"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8279,7 +8279,7 @@
         <v>70</v>
       </c>
       <c r="B93" s="3">
-        <v>256</v>
+        <v>12547</v>
       </c>
       <c r="C93" s="3">
         <v>12547</v>
@@ -8768,8 +8768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0EDFEE6-D710-5B46-ABA1-CADD3A7C38B5}">
   <dimension ref="A1:AF95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13835,103 +13835,103 @@
       </c>
       <c r="C46" s="3">
         <f>'FU05'!C46/'FU05'!C93/('FU05'!$B46/'FU05'!$B93)</f>
-        <v>2.1552813336747446E-2</v>
+        <v>1.0563404255319149</v>
       </c>
       <c r="D46" s="3">
         <f>'FU05'!D46/'FU05'!D93/('FU05'!$B46/'FU05'!$B93)</f>
-        <v>2.1867629740127188E-2</v>
+        <v>1.0717701185522492</v>
       </c>
       <c r="E46" s="3">
         <f>'FU05'!E46/'FU05'!E93/('FU05'!$B46/'FU05'!$B93)</f>
-        <v>2.2645592032894311E-2</v>
+        <v>1.1098993876434566</v>
       </c>
       <c r="F46" s="3">
         <f>'FU05'!F46/'FU05'!F93/('FU05'!$B46/'FU05'!$B93)</f>
-        <v>2.3167156983696167E-2</v>
+        <v>1.135462182322015</v>
       </c>
       <c r="G46" s="3">
         <f>'FU05'!G46/'FU05'!G93/('FU05'!$B46/'FU05'!$B93)</f>
-        <v>2.4467586012347154E-2</v>
+        <v>1.1991984441285928</v>
       </c>
       <c r="H46" s="3">
         <f>'FU05'!H46/'FU05'!H93/('FU05'!$B46/'FU05'!$B93)</f>
-        <v>2.4964662854488982E-2</v>
+        <v>1.2235610345127863</v>
       </c>
       <c r="I46" s="3">
         <f>'FU05'!I46/'FU05'!I93/('FU05'!$B46/'FU05'!$B93)</f>
-        <v>2.6530544780211624E-2</v>
+        <v>1.3003075990520128</v>
       </c>
       <c r="J46" s="3">
         <f>'FU05'!J46/'FU05'!J93/('FU05'!$B46/'FU05'!$B93)</f>
-        <v>2.9072080284079999E-2</v>
+        <v>1.4248726223607491</v>
       </c>
       <c r="K46" s="3">
         <f>'FU05'!K46/'FU05'!K93/('FU05'!$B46/'FU05'!$B93)</f>
-        <v>3.1612152351361084E-2</v>
+        <v>1.5493659201270606</v>
       </c>
       <c r="L46" s="3">
         <f>'FU05'!L46/'FU05'!L93/('FU05'!$B46/'FU05'!$B93)</f>
-        <v>3.2951243745468546E-2</v>
+        <v>1.6149970909156008</v>
       </c>
       <c r="M46" s="3">
         <f>'FU05'!M46/'FU05'!M93/('FU05'!$B46/'FU05'!$B93)</f>
-        <v>3.4027903820415949E-2</v>
+        <v>1.6677660516982771</v>
       </c>
       <c r="N46" s="3">
         <f>'FU05'!N46/'FU05'!N93/('FU05'!$B46/'FU05'!$B93)</f>
-        <v>3.5544837679782684E-2</v>
+        <v>1.7421135873759115</v>
       </c>
       <c r="O46" s="3">
         <f>'FU05'!O46/'FU05'!O93/('FU05'!$B46/'FU05'!$B93)</f>
-        <v>3.5483718042778938E-2</v>
+        <v>1.7391180089169818</v>
       </c>
       <c r="P46" s="3">
         <f>'FU05'!P46/'FU05'!P93/('FU05'!$B46/'FU05'!$B93)</f>
-        <v>3.6030025994284905E-2</v>
+        <v>1.7658935005870808</v>
       </c>
       <c r="Q46" s="3">
         <f>'FU05'!Q46/'FU05'!Q93/('FU05'!$B46/'FU05'!$B93)</f>
-        <v>3.7840985442329229E-2</v>
+        <v>1.8546517357222845</v>
       </c>
       <c r="R46" s="3">
         <f>'FU05'!R46/'FU05'!R93/('FU05'!$B46/'FU05'!$B93)</f>
-        <v>3.9802198983453149E-2</v>
+        <v>1.9507741822085416</v>
       </c>
       <c r="S46" s="3">
         <f>'FU05'!S46/'FU05'!S93/('FU05'!$B46/'FU05'!$B93)</f>
-        <v>4.1346079720226171E-2</v>
+        <v>2.0264424306628039</v>
       </c>
       <c r="T46" s="3">
         <f>'FU05'!T46/'FU05'!T93/('FU05'!$B46/'FU05'!$B93)</f>
-        <v>4.3037822936142917E-2</v>
+        <v>2.1093576733585357</v>
       </c>
       <c r="U46" s="3">
         <f>'FU05'!U46/'FU05'!U93/('FU05'!$B46/'FU05'!$B93)</f>
-        <v>4.0776726861341726E-2</v>
+        <v>1.998537468473651</v>
       </c>
       <c r="V46" s="3">
         <f>'FU05'!V46/'FU05'!V93/('FU05'!$B46/'FU05'!$B93)</f>
-        <v>4.2777796570036872E-2</v>
+        <v>2.0966133342353617</v>
       </c>
       <c r="W46" s="3">
         <f>'FU05'!W46/'FU05'!W93/('FU05'!$B46/'FU05'!$B93)</f>
-        <v>4.3574468085106385E-2</v>
+        <v>2.1356595744680851</v>
       </c>
       <c r="X46" s="3">
         <f>'FU05'!X46/'FU05'!X93/('FU05'!$B46/'FU05'!$B93)</f>
-        <v>4.461717102138784E-2</v>
+        <v>2.1867642375209111</v>
       </c>
       <c r="Y46" s="3">
         <f>'FU05'!Y46/'FU05'!Y93/('FU05'!$B46/'FU05'!$B93)</f>
-        <v>4.4777327985151702E-2</v>
+        <v>2.1946138055847597</v>
       </c>
       <c r="Z46" s="3">
         <f>'FU05'!Z46/'FU05'!Z93/('FU05'!$B46/'FU05'!$B93)</f>
-        <v>4.5611638129648996E-2</v>
+        <v>2.2355047797371328</v>
       </c>
       <c r="AA46" s="3">
         <f>'FU05'!AA46/'FU05'!AA93/('FU05'!$B46/'FU05'!$B93)</f>
-        <v>4.5708114453411587E-2</v>
+        <v>2.2402332501834188</v>
       </c>
       <c r="AB46" s="3"/>
       <c r="AC46" s="3"/>
